--- a/original_data/demography/Tabella Analisi Dati Moebius.xlsx
+++ b/original_data/demography/Tabella Analisi Dati Moebius.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasquettier/Library/Mobile Documents/com~apple~CloudDocs/01.WORK/09.Cariparo/02.Data/github/CPO_moebius_AIM1/original_data/demography/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E00F1BB-CC83-7F4E-AFF9-4CA36C6A701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A834ED9-14FD-3F44-A5DC-0A374C46F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -530,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -619,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -797,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -886,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -1064,7 +1064,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -1153,7 +1153,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
